--- a/coin_data.xlsx
+++ b/coin_data.xlsx
@@ -121,6 +121,17 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="coins" displayName="coins" ref="A1:B27" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Coin"/>
+    <tableColumn id="2" name="Valor"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,155 +455,158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.28515625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="10.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>Coin</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>$104,477.08</t>
+          <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$3,273.88</t>
+          <t>104581,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$104,374.27</t>
+          <t>3268,23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$3,270.17</t>
+          <t>263,56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$255.90</t>
+          <t>25,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$25.43</t>
+          <t>8,21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>RNDR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$8.08</t>
+          <t>7,20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNDR</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$7.17</t>
+          <t>5,20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$5.20</t>
+          <t>4,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>PENDLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$4.47</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PENDLE</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$3.65</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$1.93</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -604,7 +618,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$1.67</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -616,7 +630,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$1.43</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -628,143 +642,158 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$1.41</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DRIFT</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$1.06</t>
+          <t>1,20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>DRIFT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$0.8845</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$0.000838</t>
+          <t>0,8874</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$0.7105</t>
+          <t>0,001004</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$0.446</t>
+          <t>0,7104</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$0.3593</t>
+          <t>0,4451</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PYTH</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$0.3272</t>
+          <t>0,3603</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>PYTH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$0.03321</t>
+          <t>0,332</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SUWI</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$0.001542</t>
+          <t>0,03343</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHIBA</t>
+          <t>SUWI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$0.0000203</t>
+          <t>0,001515</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>SHIBA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0,00002037</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$0.00001543</t>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0,00001545</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/coin_data.xlsx
+++ b/coin_data.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>104581,00</t>
+          <t>104387,28</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3268,23</t>
+          <t>3260,68</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>263,56</t>
+          <t>249,05</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25,51</t>
+          <t>25,09</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>7,96</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>6,95</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,39</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,50</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,78</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,8874</t>
+          <t>0,8347</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,001004</t>
+          <t>0,0009097</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,7104</t>
+          <t>0,7005</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,4451</t>
+          <t>0,4398</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,3603</t>
+          <t>0,3548</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,332</t>
+          <t>0,3132</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,03343</t>
+          <t>0,03285</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,001515</t>
+          <t>0,001392</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,00002037</t>
+          <t>0,00002019</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,00001545</t>
+          <t>0,00001511</t>
         </is>
       </c>
     </row>

--- a/coin_data.xlsx
+++ b/coin_data.xlsx
@@ -9,7 +9,7 @@
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -125,7 +125,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="coins" displayName="coins" ref="A1:B27" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+  <autoFilter ref="A1:B27"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Coin"/>
     <tableColumn id="2" name="Valor"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>104581,00</t>
+          <t>104872,49</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3268,23</t>
+          <t>3346,12</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>263,56</t>
+          <t>239,88</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25,51</t>
+          <t>25,80</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>7,41</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,47</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,80</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,942</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,8874</t>
+          <t>0,8161</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,001004</t>
+          <t>0,001152</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,7104</t>
+          <t>0,6539</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,4451</t>
+          <t>0,4177</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,3603</t>
+          <t>0,3335</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,332</t>
+          <t>0,2921</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,03343</t>
+          <t>0,03194</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,001515</t>
+          <t>0,0006098</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,00002037</t>
+          <t>0,000019</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,00001545</t>
+          <t>0,00001362</t>
         </is>
       </c>
     </row>
